--- a/供应链管理期末作业.xlsx
+++ b/供应链管理期末作业.xlsx
@@ -1,165 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13743\Documents\GitHub\cplex_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98CF6A-A5BF-BA43-98B8-F0B75B45A9FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA7AF46-A771-4C16-9C74-4858194A8DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860" activeTab="3" xr2:uid="{B483DFEA-1FA4-1E43-885B-26B5A2FE32CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B483DFEA-1FA4-1E43-885B-26B5A2FE32CF}"/>
   </bookViews>
   <sheets>
     <sheet name="表5-3" sheetId="1" r:id="rId1"/>
     <sheet name="表5-4" sheetId="2" r:id="rId2"/>
-    <sheet name="Feasibility Report 1" sheetId="5" r:id="rId3"/>
-    <sheet name="图5-7" sheetId="3" r:id="rId4"/>
+    <sheet name="图5-7" sheetId="3" r:id="rId3"/>
+    <sheet name="图5-12" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'图5-7'!$B$11:$H$15</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'表5-3'!$E$14:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'表5-4'!$B$11:$G$15,'表5-4'!$J$11:$J$15</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'图5-12'!$B$11:$G$15,'图5-12'!$J$11:$J$15</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'图5-7'!$B$11:$H$15</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'图5-7'!$B$16:$F$16</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'表5-3'!$E$14:$G$15</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'表5-4'!$B$11:$G$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'图5-7'!$G$11:$H$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'图5-12'!$B$16:$G$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'图5-7'!$B$16:$F$16</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'表5-3'!$E$16:$G$16</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'表5-4'!$B$11:$G$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'图5-7'!$G$11:$H$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'图5-12'!$H$11:$H$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'图5-7'!$G$11:$H$15</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'表5-3'!$H$5:$H$6</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'表5-4'!$B$16:$G$16</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'图5-7'!$I$11:$I$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'图5-12'!$J$11:$J$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'图5-7'!$I$11:$I$15</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'表5-4'!$H$11:$H$15</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'图5-7'!$J$11:$J$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'图5-7'!$J$11:$J$15</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'表5-4'!$J$11:$J$15</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'图5-7'!$J$11:$J$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'图5-7'!$J$11:$J$15</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'表5-4'!$J$11:$J$15</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'图5-7'!$J$11:$J$15</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'图5-7'!$C$9</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'表5-3'!$E$9</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'表5-4'!$B$18</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'图5-12'!$B$18</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'图5-7'!$C$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">5</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'图5-7'!$B$7:$F$7</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">binary</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'图5-12'!$B$7:$G$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'图5-7'!$B$7:$F$7</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'表5-3'!$E$7:$G$7</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'图5-12'!$I$11:$I$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">二进制</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'表5-3'!$H$14:$H$15</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">二进制</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'表5-4'!$I$11:$I$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'图5-7'!$K$11:$K$15</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'图5-7'!$K$11:$K$15</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">binary</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'图5-7'!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'图5-7'!$K$11:$K$15</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'图5-7'!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
   <si>
     <t>A</t>
   </si>
@@ -257,228 +289,27 @@
     <t>产量求和</t>
   </si>
   <si>
-    <t>Microsoft Excel 16.23 Feasibility Report</t>
-  </si>
-  <si>
-    <t>Worksheet: [供应链管理期末作业.xlsx]图5-7</t>
-  </si>
-  <si>
-    <t>Report Created: 2019/4/15 11:56:58 AM</t>
-  </si>
-  <si>
-    <t>Constraints Which Make the Problem Infeasible</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Cell Value</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>$F$16</t>
-  </si>
-  <si>
-    <t>需求 E</t>
-  </si>
-  <si>
-    <t>$F$16&gt;=$F$7</t>
-  </si>
-  <si>
-    <t>Violated</t>
-  </si>
-  <si>
-    <t>$J$11</t>
-  </si>
-  <si>
-    <t>A 产量求和</t>
-  </si>
-  <si>
-    <t>$J$11&lt;=$K$11</t>
-  </si>
-  <si>
-    <t>Binding</t>
-  </si>
-  <si>
-    <t>$J$12</t>
-  </si>
-  <si>
-    <t>B 产量求和</t>
-  </si>
-  <si>
-    <t>$J$12&lt;=$K$12</t>
-  </si>
-  <si>
-    <t>$J$13</t>
-  </si>
-  <si>
-    <t>C 产量求和</t>
-  </si>
-  <si>
-    <t>$J$13&lt;=$K$13</t>
-  </si>
-  <si>
-    <t>$J$14</t>
-  </si>
-  <si>
-    <t>D 产量求和</t>
-  </si>
-  <si>
-    <t>$J$14&lt;=$K$14</t>
-  </si>
-  <si>
-    <t>$J$15</t>
-  </si>
-  <si>
-    <t>E 产量求和</t>
-  </si>
-  <si>
-    <t>$J$15&lt;=$K$15</t>
-  </si>
-  <si>
-    <t>$G$11</t>
-  </si>
-  <si>
-    <t>A 是否选低</t>
-  </si>
-  <si>
-    <t>$G$11&lt;=1</t>
-  </si>
-  <si>
-    <t>Not Binding</t>
-  </si>
-  <si>
-    <t>$H$11</t>
-  </si>
-  <si>
-    <t>A 是否选高</t>
-  </si>
-  <si>
-    <t>$H$11&lt;=1</t>
-  </si>
-  <si>
-    <t>$G$12</t>
-  </si>
-  <si>
-    <t>B 是否选低</t>
-  </si>
-  <si>
-    <t>$G$12&lt;=1</t>
-  </si>
-  <si>
-    <t>$H$12</t>
-  </si>
-  <si>
-    <t>B 是否选高</t>
-  </si>
-  <si>
-    <t>$H$12&lt;=1</t>
-  </si>
-  <si>
-    <t>$G$13</t>
-  </si>
-  <si>
-    <t>C 是否选低</t>
-  </si>
-  <si>
-    <t>$G$13&lt;=1</t>
-  </si>
-  <si>
-    <t>$H$13</t>
-  </si>
-  <si>
-    <t>C 是否选高</t>
-  </si>
-  <si>
-    <t>$H$13&lt;=1</t>
-  </si>
-  <si>
-    <t>$G$14</t>
-  </si>
-  <si>
-    <t>D 是否选低</t>
-  </si>
-  <si>
-    <t>$G$14&lt;=1</t>
-  </si>
-  <si>
-    <t>$H$14</t>
-  </si>
-  <si>
-    <t>D 是否选高</t>
-  </si>
-  <si>
-    <t>$H$14&lt;=1</t>
-  </si>
-  <si>
-    <t>$G$15</t>
-  </si>
-  <si>
-    <t>E 是否选低</t>
-  </si>
-  <si>
-    <t>$G$15&lt;=1</t>
-  </si>
-  <si>
-    <t>$H$15</t>
-  </si>
-  <si>
-    <t>E 是否选高</t>
-  </si>
-  <si>
-    <t>$H$15&lt;=1</t>
-  </si>
-  <si>
-    <t>$J$11:$J$15 &lt;= $K$11:$K$15</t>
-  </si>
-  <si>
-    <t>$G$11:$H$15 &lt;= 1</t>
+    <t>月需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -498,37 +329,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,12 +655,12 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="A1:I7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -884,7 +696,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,7 +734,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,7 +772,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,7 +810,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +848,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +886,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +920,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1128,7 +940,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +976,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1196,7 +1008,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1045,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1082,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1119,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1156,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1381,7 +1193,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <f>SUM(B11:B13)</f>
@@ -1419,7 +1231,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1439,7 +1251,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1459,7 +1271,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1479,7 +1291,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1499,7 +1311,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1519,7 +1331,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1539,7 +1351,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1559,7 +1371,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1579,7 +1391,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1599,7 +1411,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1619,7 +1431,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1639,7 +1451,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1659,7 +1471,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1679,7 +1491,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1699,7 +1511,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1719,7 +1531,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1739,7 +1551,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1759,7 +1571,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1779,7 +1591,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1799,7 +1611,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1819,7 +1631,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1839,7 +1651,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1859,7 +1671,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1879,7 +1691,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1899,7 +1711,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1919,7 +1731,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1939,7 +1751,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1959,7 +1771,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1979,7 +1791,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2000,6 +1812,7 @@
       <c r="R45" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2009,12 +1822,12 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2041,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +1901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2135,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +2089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2114,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -2334,7 +2147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2655,7 +2468,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2665,427 +2478,515 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE7C13A-64D4-8E48-ABE9-2B19B5DE47A9}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E5340-A1C5-7444-94C6-93D331528C2F}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="10.84375" style="1"/>
+    <col min="11" max="11" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1">
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="B14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1">
+        <v>98</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6750</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6500</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9750</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" collapsed="1">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17">
+      <c r="F5" s="1">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6150</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUMPRODUCT(B2:F6,B11:F15)+SUMPRODUCT(G11:G15,G2:G6)+SUMPRODUCT(I2:I6,H11:H15)</f>
+        <v>23751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18">
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11+H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f>SUM(B11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <f>G11*H2+H11*J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19">
+      <c r="B12" s="1">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.9999999999999947</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20">
+      <c r="I12" s="1">
+        <f t="shared" ref="I12:I15" si="0">G12+H12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21">
+      <c r="J12" s="1">
+        <f>SUM(B12:F12)</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="K12" s="1">
+        <f>G12*H3+H12*J3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J12:J15" si="1">SUM(B13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f>G13*H4+H13*J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23">
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K14" s="1">
+        <f>G14*H5+H14*J5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" hidden="1" outlineLevel="1">
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" collapsed="1">
-      <c r="D27" s="4"/>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K15" s="1">
+        <f>G15*H6+H15*J6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <f>SUM(B11:B15)</f>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:E16" si="2">SUM(C11:C15)</f>
+        <v>7.9999999999999947</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <f>SUM(F11:F15)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E5340-A1C5-7444-94C6-93D331528C2F}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7497526B-D706-4CC2-82D4-8FA909527722}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,184 +3003,166 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1675</v>
+      </c>
+      <c r="C2" s="1">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>685</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1630</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1160</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1460</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D3" s="1">
+        <v>970</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>495</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1925</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1425</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>950</v>
+      </c>
+      <c r="G4" s="1">
+        <v>800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>380</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1355</v>
+      </c>
+      <c r="D5" s="1">
+        <v>543</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11045</v>
+      </c>
+      <c r="F5" s="1">
+        <v>665</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2321</v>
+      </c>
+      <c r="H5" s="1">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>81</v>
-      </c>
-      <c r="C2" s="1">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1">
-        <v>130</v>
-      </c>
-      <c r="F2" s="1">
-        <v>115</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I5" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>922</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1646</v>
+      </c>
+      <c r="D6" s="1">
+        <v>700</v>
+      </c>
+      <c r="E6" s="1">
+        <v>508</v>
+      </c>
+      <c r="F6" s="1">
+        <v>311</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1797</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
         <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>117</v>
-      </c>
-      <c r="C3" s="1">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1">
-        <v>108</v>
-      </c>
-      <c r="E3" s="1">
-        <v>98</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6750</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1">
-        <v>95</v>
-      </c>
-      <c r="E4" s="1">
-        <v>119</v>
-      </c>
-      <c r="F4" s="1">
-        <v>111</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6500</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9750</v>
-      </c>
-      <c r="J4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>115</v>
-      </c>
-      <c r="C5" s="1">
-        <v>125</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1">
-        <v>74</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6150</v>
-      </c>
-      <c r="J5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>142</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>103</v>
-      </c>
-      <c r="E6" s="1">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1">
-        <v>71</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -3288,25 +3171,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
-        <f>SUMPRODUCT(B2:F6,B11:F15)+SUMPRODUCT(G11:G15,G2:G6)+SUMPRODUCT(I2:I6,H11:H15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3323,33 +3200,30 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3361,62 +3235,54 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <f>SUM(B11:G11)</f>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <f>G11+H11</f>
-        <v>0</v>
+        <f>H2*J11</f>
+        <v>18</v>
       </c>
       <c r="J11" s="1">
-        <f>SUM(B11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <f>G11*H2+H11*J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10.999999999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H15" si="0">SUM(B12:G12)</f>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H3*J12</f>
+        <v>24</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" ref="I12:I15" si="0">G12+H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12:J15" si="1">SUM(B12:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12:K15" si="2">G12*H3+H12*J3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -3437,123 +3303,127 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
+        <f>H4*J13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1">
+        <f>H5*J14</f>
+        <v>22</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f>H6*J15</f>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B11:B15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:E16" si="3">SUM(C11:C15)</f>
-        <v>0</v>
+        <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
-        <f>SUM(F11:F15)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.999999999999996</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>SUMPRODUCT(I2:I6,J11:J15)+SUMPRODUCT(B2:G6,B11:G15)</f>
+        <v>47401</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>